--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3819A0CF-7334-4111-936D-808D8BBB20D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{72430A18-AB92-42C0-9992-414ADC66C578}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{72430A18-AB92-42C0-9992-414ADC66C578}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B9672E9D-9195-451F-ABDE-5F9D57EA324F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>problem no</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>create maptable, slide until maptable fills and slide left to trip</t>
+  </si>
+  <si>
+    <t>complexity</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>&gt;10</t>
+  </si>
+  <si>
+    <t>create maptable and empty window. each item add right window and del left window and update list if window and maptable equals</t>
   </si>
 </sst>
 </file>
@@ -403,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +430,7 @@
     <col min="2" max="3" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +449,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>76</v>
       </c>
@@ -453,6 +471,32 @@
       </c>
       <c r="F2">
         <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>438</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B9672E9D-9195-451F-ABDE-5F9D57EA324F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD44EA0C-0803-4D4E-937D-1AC6D004BBCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>problem no</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>create maptable and empty window. each item add right window and del left window and update list if window and maptable equals</t>
+  </si>
+  <si>
+    <t>instead of char words are slided and possible start position is range of wordlen</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +502,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD44EA0C-0803-4D4E-937D-1AC6D004BBCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A497E03F-DD1B-460C-BB8F-F5F91766B1AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>problem no</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>instead of char words are slided and possible start position is range of wordlen</t>
+  </si>
+  <si>
+    <t>until non repeated add to set, when repeat, remove until become non-repeat</t>
+  </si>
+  <si>
+    <t>3 mins</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,6 +531,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A497E03F-DD1B-460C-BB8F-F5F91766B1AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F46A4E3A-EF8D-4B0E-9F9B-A96B8568411C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>problem no</t>
   </si>
@@ -72,7 +72,7 @@
     <t>until non repeated add to set, when repeat, remove until become non-repeat</t>
   </si>
   <si>
-    <t>3 mins</t>
+    <t>slide right until make counter 0 then slide left to check if its permutation else return False at the end</t>
   </si>
 </sst>
 </file>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,8 +541,8 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="D5">
+        <v>30</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -551,6 +551,29 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>567</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F46A4E3A-EF8D-4B0E-9F9B-A96B8568411C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{322B7ACD-5687-4A32-9612-D64842DD9613}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>problem no</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>slide right until make counter 0 then slide left to check if its permutation else return False at the end</t>
+  </si>
+  <si>
+    <t>divide and mod</t>
+  </si>
+  <si>
+    <t>divided until x exists and reversed</t>
   </si>
 </sst>
 </file>
@@ -427,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,6 +583,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{322B7ACD-5687-4A32-9612-D64842DD9613}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E891B01E-E36B-4353-A6EB-1F6071E0866D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>problem no</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>divided until x exists and reversed</t>
+  </si>
+  <si>
+    <t>half reverse</t>
+  </si>
+  <si>
+    <t>reverse until half number and check both</t>
+  </si>
+  <si>
+    <t>O(logn)</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,6 +615,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E891B01E-E36B-4353-A6EB-1F6071E0866D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2F05D44-8B0A-4844-95FA-81DFBF8ABFE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>problem no</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>O(logn)</t>
+  </si>
+  <si>
+    <t>iterative</t>
+  </si>
+  <si>
+    <t>find maxlen word, find max common prefix and send</t>
+  </si>
+  <si>
+    <t>O(words*len)</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,6 +647,29 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2F05D44-8B0A-4844-95FA-81DFBF8ABFE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A33896FD-A304-479F-AE22-0BD6A76785EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>problem no</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>O(words*len)</t>
+  </si>
+  <si>
+    <t>compare each window with needle and return index</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,6 +673,29 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A33896FD-A304-479F-AE22-0BD6A76785EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{648652E7-B792-4F4D-A0EE-F6A83D2F5B68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>problem no</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>compare each window with needle and return index</t>
+  </si>
+  <si>
+    <t>recursion</t>
+  </si>
+  <si>
+    <t>check current and left and right concurrentl</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,6 +702,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{648652E7-B792-4F4D-A0EE-F6A83D2F5B68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F768741E-6D64-4260-8551-1CCF4A5B5098}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>problem no</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>check current and left and right concurrentl</t>
+  </si>
+  <si>
+    <t>check from both side return false as soon as not same and return true at the end</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,6 +728,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F768741E-6D64-4260-8551-1CCF4A5B5098}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BBCE788B-A14B-4C05-B2A4-0CACE6D12B87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>problem no</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>check from both side return false as soon as not same and return true at the end</t>
+  </si>
+  <si>
+    <t>math trick</t>
+  </si>
+  <si>
+    <t>divide n by 5 until zero will give num of zeros</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,6 +757,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BBCE788B-A14B-4C05-B2A4-0CACE6D12B87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{93A284B7-8B72-4226-9DE8-EB12EC624915}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>problem no</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>divide n by 5 until zero will give num of zeros</t>
+  </si>
+  <si>
+    <t>2 pointer</t>
+  </si>
+  <si>
+    <t>run fast for n times then slow,fast togethere to reach n and remove it</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,6 +786,29 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{93A284B7-8B72-4226-9DE8-EB12EC624915}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C136C805-0783-4FEC-8EB7-2099D77509ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>problem no</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>run fast for n times then slow,fast togethere to reach n and remove it</t>
+  </si>
+  <si>
+    <t>add root value if in range and call recursively</t>
+  </si>
+  <si>
+    <t>get table for row and col wise max and updated based on that</t>
+  </si>
+  <si>
+    <t>O(nm)</t>
+  </si>
+  <si>
+    <t>count 1 in bin string</t>
   </si>
 </sst>
 </file>
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,6 +821,75 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>938</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>807</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>338</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C136C805-0783-4FEC-8EB7-2099D77509ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2842E4DF-0F2A-41F6-9D35-91653D546654}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>problem no</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>count 1 in bin string</t>
+  </si>
+  <si>
+    <t>inorder inform of list for recursion</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,6 +893,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2842E4DF-0F2A-41F6-9D35-91653D546654}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{59B037FB-9C45-4726-8070-CA8FE4680817}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>problem no</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>inorder inform of list for recursion</t>
+  </si>
+  <si>
+    <t>simple loop and execute</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,6 +919,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{59B037FB-9C45-4726-8070-CA8FE4680817}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2979DCB5-B7AF-4354-83A7-C65048498D49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>problem no</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>simple loop and execute</t>
+  </si>
+  <si>
+    <t>iterate together and fill from end of ar1</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,6 +945,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2979DCB5-B7AF-4354-83A7-C65048498D49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4B42A-6FDC-455B-97FD-308216AF8B4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>problem no</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>iterate together and fill from end of ar1</t>
+  </si>
+  <si>
+    <t>hashmap</t>
+  </si>
+  <si>
+    <t>create dict set for row,col, box and check if its repeate</t>
+  </si>
+  <si>
+    <t>O(n*m)</t>
   </si>
 </sst>
 </file>
@@ -496,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,6 +977,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4B42A-6FDC-455B-97FD-308216AF8B4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83C39B-557F-416B-9867-416CF560A8E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>problem no</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>O(n*m)</t>
+  </si>
+  <si>
+    <t>Inplace hashmap</t>
+  </si>
+  <si>
+    <t>get neighbours and add to dict if value changes, else proceed</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,6 +1006,29 @@
         <v>41</v>
       </c>
     </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>289</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83C39B-557F-416B-9867-416CF560A8E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20FD113-B554-451E-870A-13067296BF8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>problem no</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>get neighbours and add to dict if value changes, else proceed</t>
+  </si>
+  <si>
+    <t>oops</t>
+  </si>
+  <si>
+    <t>basic recursive</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,6 +1035,29 @@
         <v>41</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20FD113-B554-451E-870A-13067296BF8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1EDFD-E006-426A-8E2D-A71744F58F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>problem no</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>basic recursive</t>
+  </si>
+  <si>
+    <t>added inroder and return kth element</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,6 +1061,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1EDFD-E006-426A-8E2D-A71744F58F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D68EAD-53E1-4FC4-B6E3-2BD6AB34B68F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>problem no</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>added inroder and return kth element</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>add each combination with backtracking and recursion</t>
+  </si>
+  <si>
+    <t>same as 78 with extra constraint</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
   </si>
 </sst>
 </file>
@@ -520,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,6 +1096,52 @@
         <v>9</v>
       </c>
     </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D68EAD-53E1-4FC4-B6E3-2BD6AB34B68F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471232B4-AC7B-47A1-99DA-B6117E98D4D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>problem no</t>
   </si>
@@ -532,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,6 +1142,29 @@
         <v>50</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471232B4-AC7B-47A1-99DA-B6117E98D4D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943353D3-E613-42FC-AB81-1A040FE7EB18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>problem no</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>O(nx)</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,6 +1168,75 @@
         <v>9</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943353D3-E613-42FC-AB81-1A040FE7EB18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3276351-C4B4-4B42-8FEC-1A7BFA18E541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>problem no</t>
   </si>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,6 +1237,29 @@
         <v>51</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3276351-C4B4-4B42-8FEC-1A7BFA18E541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AFAC6-369F-4D1F-A1C7-18D28DFE7615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>problem no</t>
   </si>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,6 +1260,29 @@
         <v>51</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/probtracker.xlsx
+++ b/probtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokul\Documents\GitHub\leedcodeanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AFAC6-369F-4D1F-A1C7-18D28DFE7615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1D7A75-3A5E-474C-97CF-34EC80C7152D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{CDDEA4E6-47F8-4E8E-82FF-AB303079480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>problem no</t>
   </si>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FB0BA-10C3-4A35-81E6-623E68AEA5F5}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,6 +1283,29 @@
         <v>51</v>
       </c>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>216</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
